--- a/result/result_1.1.0.0__01_11_2019_212920.xlsx
+++ b/result/result_1.1.0.0__01_11_2019_212920.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shamim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IIT.DESKTOP-MUP0DOP\Documents\Braille-to-Text-Translator\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04340D4-33DE-4CB1-838E-B737664E9EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="22">
   <si>
     <t>Data File</t>
   </si>
@@ -91,11 +90,17 @@
   <si>
     <t>Word Accuracy</t>
   </si>
+  <si>
+    <t>All data</t>
+  </si>
+  <si>
+    <t>All lines of all data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,11 +480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:H124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,58 +500,142 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MIN($C2:$D2)/MAX($C2:$D2)*100</f>
+        <v>95.238095238095227</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H33" si="0">MIN(F2,G2)/MAX(F2,G2)*100</f>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E33" si="1">MIN($C3:$D3)/MAX($C3:$D3)*100</f>
+        <v>94.73684210526315</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="1"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>20</v>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
       </c>
       <c r="E5" s="1">
-        <f>MIN($C5:$D5)/MAX($C5:$D5)*100</f>
-        <v>95.238095238095227</v>
+        <f t="shared" si="1"/>
+        <v>94.117647058823522</v>
       </c>
       <c r="F5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <f>MIN(F5,G5)/MAX(F5,G5)*100</f>
-        <v>33.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -554,27 +643,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" ref="E5:E36" si="0">MIN($C6:$D6)/MAX($C6:$D6)*100</f>
-        <v>94.73684210526315</v>
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="F6" s="2">
         <v>4</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
-        <f>MIN(F6,G6)/MAX(F6,G6)*100</f>
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -582,27 +671,27 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f>MIN(F7,G7)/MAX(F7,G7)*100</f>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,27 +699,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>94.117647058823522</v>
-      </c>
-      <c r="F8" s="2">
-        <v>4</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <f>MIN(F8,G8)/MAX(F8,G8)*100</f>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,26 +727,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2">
-        <f>MIN(F9,G9)/MAX(F9,G9)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -666,26 +755,26 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
+        <f t="shared" si="1"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>95.454545454545453</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2">
-        <f>MIN(F10,G10)/MAX(F10,G10)*100</f>
         <v>66.666666666666657</v>
       </c>
     </row>
@@ -694,27 +783,27 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>15</v>
       </c>
       <c r="E11" s="2">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2">
-        <f>MIN(F11,G11)/MAX(F11,G11)*100</f>
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -722,27 +811,27 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2">
+        <f t="shared" si="1"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2">
-        <f>MIN(F12,G12)/MAX(F12,G12)*100</f>
-        <v>100</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,143 +839,143 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
-        <v>18</v>
-      </c>
       <c r="D13" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>94.444444444444443</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <f>MIN(F13,G13)/MAX(F13,G13)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9">
+        <f>SUM(C2:C13)</f>
+        <v>188</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(D2:D13)</f>
+        <v>180</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>95.744680851063833</v>
+      </c>
+      <c r="F14" s="9">
+        <f>SUM(F2:F13)</f>
+        <v>35</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(G2:G13)</f>
+        <v>25</v>
+      </c>
+      <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2">
-        <f>MIN(F14,G14)/MAX(F14,G14)*100</f>
-        <v>75</v>
+        <v>71.428571428571431</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>94.444444444444443</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <f>MIN(F15,G15)/MAX(F15,G15)*100</f>
-        <v>66.666666666666657</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <f>MIN(F16,G16)/MAX(F16,G16)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9">
-        <f>SUM(C5:C16)</f>
-        <v>188</v>
-      </c>
-      <c r="D17" s="9">
-        <f>SUM(D5:D16)</f>
-        <v>180</v>
-      </c>
-      <c r="E17" s="9">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>95.744680851063833</v>
-      </c>
-      <c r="F17" s="9">
-        <f>SUM(F5:F16)</f>
-        <v>35</v>
-      </c>
-      <c r="G17" s="9">
-        <f>SUM(G5:G16)</f>
-        <v>25</v>
-      </c>
-      <c r="H17" s="9">
-        <f>MIN(F17,G17)/MAX(F17,G17)*100</f>
-        <v>71.428571428571431</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,26 +983,26 @@
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <f>MIN(F18,G18)/MAX(F18,G18)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -922,198 +1011,198 @@
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9">
+        <f>SUM(C15:C19)</f>
+        <v>73</v>
+      </c>
+      <c r="D20" s="9">
+        <f>SUM(D15:D19)</f>
+        <v>73</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F20" s="9">
+        <f>SUM(F15:F19)</f>
         <v>16</v>
       </c>
-      <c r="D19" s="2">
+      <c r="G20" s="9">
+        <f>SUM(G15:G19)</f>
         <v>16</v>
       </c>
-      <c r="E19" s="2">
+      <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2">
-        <f>MIN(F19,G19)/MAX(F19,G19)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>15</v>
-      </c>
-      <c r="D20" s="2">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F20" s="2">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2">
-        <f>MIN(F20,G20)/MAX(F20,G20)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="2">
-        <f>MIN(F21,G21)/MAX(F21,G21)*100</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
         <v>18</v>
       </c>
-      <c r="D22" s="2">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D23" s="2">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>94.444444444444443</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4</v>
+      </c>
+      <c r="G23" s="2">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4</v>
-      </c>
-      <c r="G22" s="2">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2">
-        <f>MIN(F22,G22)/MAX(F22,G22)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9">
-        <f>SUM(C18:C22)</f>
-        <v>73</v>
-      </c>
-      <c r="D23" s="9">
-        <f>SUM(D18:D22)</f>
-        <v>73</v>
-      </c>
-      <c r="E23" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2">
+        <v>16</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>94.117647058823522</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F23" s="9">
-        <f>SUM(F18:F22)</f>
-        <v>16</v>
-      </c>
-      <c r="G23" s="9">
-        <f>SUM(G18:G22)</f>
-        <v>16</v>
-      </c>
-      <c r="H23" s="9">
-        <f>MIN(F23,G23)/MAX(F23,G23)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2">
-        <v>20</v>
-      </c>
-      <c r="D24" s="2">
-        <v>20</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <f>MIN(F24,G24)/MAX(F24,G24)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="2">
-        <f>MIN(F25,G25)/MAX(F25,G25)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1122,27 +1211,27 @@
         <v>6</v>
       </c>
       <c r="B26" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>94.444444444444443</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2">
-        <f>MIN(F26,G26)/MAX(F26,G26)*100</f>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,27 +1239,27 @@
         <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
-        <v>94.117647058823522</v>
-      </c>
-      <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2">
-        <f>MIN(F27,G27)/MAX(F27,G27)*100</f>
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,27 +1267,27 @@
         <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
-        <f>MIN(F28,G28)/MAX(F28,G28)*100</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1206,26 +1295,26 @@
         <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
-        <f>MIN(F29,G29)/MAX(F29,G29)*100</f>
         <v>100</v>
       </c>
     </row>
@@ -1234,27 +1323,27 @@
         <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>86.36363636363636</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4</v>
-      </c>
-      <c r="G30" s="2">
-        <v>4</v>
-      </c>
-      <c r="H30" s="2">
-        <f>MIN(F30,G30)/MAX(F30,G30)*100</f>
-        <v>100</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,143 +1351,143 @@
         <v>6</v>
       </c>
       <c r="B31" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
-        <f>MIN(F31,G31)/MAX(F31,G31)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="2">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2">
-        <v>15</v>
-      </c>
-      <c r="D32" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="B32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="9">
+        <f>SUM(C21:C31)</f>
+        <v>175</v>
+      </c>
+      <c r="D32" s="9">
+        <f>SUM(D21:D31)</f>
+        <v>165</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>94.285714285714278</v>
+      </c>
+      <c r="F32" s="9">
+        <f>SUM(F21:F31)</f>
+        <v>36</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(G21:G31)</f>
+        <v>31</v>
+      </c>
+      <c r="H32" s="9">
         <f t="shared" si="0"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="F32" s="2">
-        <v>4</v>
-      </c>
-      <c r="G32" s="2">
-        <v>4</v>
-      </c>
-      <c r="H32" s="2">
-        <f>MIN(F32,G32)/MAX(F32,G32)*100</f>
-        <v>100</v>
+        <v>86.111111111111114</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
-        <v>86.36363636363636</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
-        <f>MIN(F33,G33)/MAX(F33,G33)*100</f>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C34" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
-        <v>86.666666666666671</v>
+        <f t="shared" ref="E34:E65" si="2">MIN($C34:$D34)/MAX($C34:$D34)*100</f>
+        <v>100</v>
       </c>
       <c r="F34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="2">
-        <f>MIN(F34,G34)/MAX(F34,G34)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="9" t="s">
+        <f t="shared" ref="H34:H65" si="3">MIN(F34,G34)/MAX(F34,G34)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
         <v>12</v>
       </c>
-      <c r="C35" s="9">
-        <f>SUM(C24:C34)</f>
-        <v>175</v>
-      </c>
-      <c r="D35" s="9">
-        <f>SUM(D24:D34)</f>
-        <v>165</v>
-      </c>
-      <c r="E35" s="9">
-        <f t="shared" si="0"/>
-        <v>94.285714285714278</v>
-      </c>
-      <c r="F35" s="9">
-        <f>SUM(F24:F34)</f>
-        <v>36</v>
-      </c>
-      <c r="G35" s="9">
-        <f>SUM(G24:G34)</f>
-        <v>31</v>
-      </c>
-      <c r="H35" s="9">
-        <f>MIN(F35,G35)/MAX(F35,G35)*100</f>
-        <v>86.111111111111114</v>
+      <c r="D35" s="2">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,26 +1495,26 @@
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="2">
-        <f>MIN(F36,G36)/MAX(F36,G36)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1434,26 +1523,26 @@
         <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D37" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ref="E37:E68" si="1">MIN($C37:$D37)/MAX($C37:$D37)*100</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37" s="2">
-        <f>MIN(F37,G37)/MAX(F37,G37)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1462,26 +1551,26 @@
         <v>7</v>
       </c>
       <c r="B38" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D38" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2">
-        <f>MIN(F38,G38)/MAX(F38,G38)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1490,26 +1579,26 @@
         <v>7</v>
       </c>
       <c r="B39" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C39" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
-        <f>MIN(F39,G39)/MAX(F39,G39)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1518,16 +1607,16 @@
         <v>7</v>
       </c>
       <c r="B40" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F40" s="2">
@@ -1537,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="2">
-        <f>MIN(F40,G40)/MAX(F40,G40)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -1546,72 +1635,76 @@
         <v>7</v>
       </c>
       <c r="B41" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="F41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="2">
-        <f>MIN(F41,G41)/MAX(F41,G41)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="2">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2">
-        <v>13</v>
-      </c>
-      <c r="E42" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2">
-        <f>MIN(F42,G42)/MAX(F42,G42)*100</f>
-        <v>100</v>
+      <c r="B42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="9">
+        <f>SUM(C33:C41)</f>
+        <v>104</v>
+      </c>
+      <c r="D42" s="9">
+        <f>SUM(D33:D41)</f>
+        <v>103</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="2"/>
+        <v>99.038461538461547</v>
+      </c>
+      <c r="F42" s="9">
+        <f>SUM(F33:F41)</f>
+        <v>25</v>
+      </c>
+      <c r="G42" s="9">
+        <f>SUM(G33:G41)</f>
+        <v>24</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="F43" s="2">
@@ -1621,68 +1714,64 @@
         <v>4</v>
       </c>
       <c r="H43" s="2">
-        <f>MIN(F43,G43)/MAX(F43,G43)*100</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>88.888888888888886</v>
       </c>
       <c r="F44" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" s="2">
-        <f>MIN(F44,G44)/MAX(F44,G44)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="9">
-        <f>SUM(C36:C44)</f>
-        <v>104</v>
-      </c>
-      <c r="D45" s="9">
-        <f>SUM(D36:D44)</f>
-        <v>103</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="1"/>
-        <v>99.038461538461547</v>
-      </c>
-      <c r="F45" s="9">
-        <f>SUM(F36:F44)</f>
-        <v>25</v>
-      </c>
-      <c r="G45" s="9">
-        <f>SUM(G36:G44)</f>
-        <v>24</v>
-      </c>
-      <c r="H45" s="9">
-        <f>MIN(F45,G45)/MAX(F45,G45)*100</f>
-        <v>96</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>93.75</v>
+      </c>
+      <c r="F45" s="2">
+        <v>3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1690,27 +1779,27 @@
         <v>8</v>
       </c>
       <c r="B46" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>90.476190476190482</v>
       </c>
       <c r="F46" s="2">
         <v>4</v>
       </c>
       <c r="G46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H46" s="2">
-        <f>MIN(F46,G46)/MAX(F46,G46)*100</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1718,17 +1807,17 @@
         <v>8</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2">
         <v>16</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
+        <f t="shared" si="2"/>
+        <v>94.117647058823522</v>
       </c>
       <c r="F47" s="2">
         <v>4</v>
@@ -1737,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="H47" s="2">
-        <f>MIN(F47,G47)/MAX(F47,G47)*100</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -1746,27 +1835,27 @@
         <v>8</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="1"/>
-        <v>93.75</v>
+        <f t="shared" si="2"/>
+        <v>85.714285714285708</v>
       </c>
       <c r="F48" s="2">
         <v>3</v>
       </c>
       <c r="G48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="2">
-        <f>MIN(F48,G48)/MAX(F48,G48)*100</f>
-        <v>66.666666666666657</v>
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1774,27 +1863,27 @@
         <v>8</v>
       </c>
       <c r="B49" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="1"/>
-        <v>90.476190476190482</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="F49" s="2">
         <v>4</v>
       </c>
       <c r="G49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="2">
-        <f>MIN(F49,G49)/MAX(F49,G49)*100</f>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1802,27 +1891,27 @@
         <v>8</v>
       </c>
       <c r="B50" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="1"/>
-        <v>94.117647058823522</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="F50" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
-        <f>MIN(F50,G50)/MAX(F50,G50)*100</f>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1830,27 +1919,27 @@
         <v>8</v>
       </c>
       <c r="B51" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="1"/>
-        <v>85.714285714285708</v>
+        <f t="shared" si="2"/>
+        <v>86.666666666666671</v>
       </c>
       <c r="F51" s="2">
         <v>3</v>
       </c>
       <c r="G51" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" s="2">
-        <f>MIN(F51,G51)/MAX(F51,G51)*100</f>
-        <v>33.333333333333329</v>
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,27 +1947,27 @@
         <v>8</v>
       </c>
       <c r="B52" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C52" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2">
         <v>14</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>93.333333333333329</v>
       </c>
       <c r="F52" s="2">
         <v>4</v>
       </c>
       <c r="G52" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" s="2">
-        <f>MIN(F52,G52)/MAX(F52,G52)*100</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1886,143 +1975,143 @@
         <v>8</v>
       </c>
       <c r="B53" s="2">
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="2"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="F53" s="2">
+        <v>3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="2">
-        <v>5</v>
-      </c>
-      <c r="D53" s="2">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2">
-        <f>MIN(F53,G53)/MAX(F53,G53)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="2">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2">
-        <v>15</v>
-      </c>
-      <c r="D54" s="2">
-        <v>13</v>
-      </c>
-      <c r="E54" s="2">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
-      </c>
-      <c r="F54" s="2">
-        <v>3</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="2">
-        <f>MIN(F54,G54)/MAX(F54,G54)*100</f>
-        <v>66.666666666666657</v>
+      <c r="B54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="9">
+        <f>SUM(C43:C53)</f>
+        <v>163</v>
+      </c>
+      <c r="D54" s="9">
+        <f>SUM(D43:D53)</f>
+        <v>151</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="2"/>
+        <v>92.638036809815944</v>
+      </c>
+      <c r="F54" s="9">
+        <f>SUM(F43:F53)</f>
+        <v>37</v>
+      </c>
+      <c r="G54" s="9">
+        <f>SUM(G43:G53)</f>
+        <v>27</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="3"/>
+        <v>72.972972972972968</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2">
         <v>10</v>
       </c>
-      <c r="C55" s="2">
-        <v>15</v>
-      </c>
-      <c r="D55" s="2">
-        <v>14</v>
-      </c>
       <c r="E55" s="2">
-        <f t="shared" si="1"/>
-        <v>93.333333333333329</v>
+        <f t="shared" si="2"/>
+        <v>90.909090909090907</v>
       </c>
       <c r="F55" s="2">
         <v>4</v>
       </c>
       <c r="G55" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55" s="2">
-        <f>MIN(F55,G55)/MAX(F55,G55)*100</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="1"/>
-        <v>92.307692307692307</v>
+        <f t="shared" si="2"/>
+        <v>94.73684210526315</v>
       </c>
       <c r="F56" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" s="2">
-        <f>MIN(F56,G56)/MAX(F56,G56)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="9">
-        <f>SUM(C46:C56)</f>
-        <v>163</v>
-      </c>
-      <c r="D57" s="9">
-        <f>SUM(D46:D56)</f>
-        <v>151</v>
-      </c>
-      <c r="E57" s="9">
-        <f t="shared" si="1"/>
-        <v>92.638036809815944</v>
-      </c>
-      <c r="F57" s="9">
-        <f>SUM(F46:F56)</f>
-        <v>37</v>
-      </c>
-      <c r="G57" s="9">
-        <f>SUM(G46:G56)</f>
-        <v>27</v>
-      </c>
-      <c r="H57" s="9">
-        <f>MIN(F57,G57)/MAX(F57,G57)*100</f>
-        <v>72.972972972972968</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2030,27 +2119,27 @@
         <v>9</v>
       </c>
       <c r="B58" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="1"/>
-        <v>90.909090909090907</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="F58" s="2">
         <v>4</v>
       </c>
       <c r="G58" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="2">
-        <f>MIN(F58,G58)/MAX(F58,G58)*100</f>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2058,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="B59" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2">
         <v>19</v>
@@ -2067,18 +2156,18 @@
         <v>18</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>94.73684210526315</v>
       </c>
       <c r="F59" s="2">
         <v>4</v>
       </c>
       <c r="G59" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H59" s="2">
-        <f>MIN(F59,G59)/MAX(F59,G59)*100</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2086,143 +2175,143 @@
         <v>9</v>
       </c>
       <c r="B60" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F60" s="7">
+        <v>3</v>
       </c>
       <c r="G60" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="2">
-        <f>MIN(F60,G60)/MAX(F60,G60)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2">
-        <v>18</v>
-      </c>
-      <c r="D61" s="2">
-        <v>18</v>
-      </c>
-      <c r="E61" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F61" s="2">
-        <v>4</v>
-      </c>
-      <c r="G61" s="2">
-        <v>4</v>
-      </c>
-      <c r="H61" s="2">
-        <f>MIN(F61,G61)/MAX(F61,G61)*100</f>
-        <v>100</v>
+      <c r="B61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="9">
+        <f>SUM(C55:C60)</f>
+        <v>93</v>
+      </c>
+      <c r="D61" s="9">
+        <f>SUM(D55:D60)</f>
+        <v>90</v>
+      </c>
+      <c r="E61" s="9">
+        <f t="shared" si="2"/>
+        <v>96.774193548387103</v>
+      </c>
+      <c r="F61" s="9">
+        <f>SUM(F55:F60)</f>
+        <v>21</v>
+      </c>
+      <c r="G61" s="9">
+        <f>SUM(G55:G60)</f>
+        <v>19</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" si="3"/>
+        <v>90.476190476190482</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="1"/>
-        <v>94.73684210526315</v>
+        <f t="shared" si="2"/>
+        <v>95.833333333333343</v>
       </c>
       <c r="F62" s="2">
         <v>4</v>
       </c>
       <c r="G62" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" s="2">
-        <f>MIN(F62,G62)/MAX(F62,G62)*100</f>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F63" s="7">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="F63" s="2">
+        <v>4</v>
       </c>
       <c r="G63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" s="2">
-        <f>MIN(F63,G63)/MAX(F63,G63)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="9">
-        <f>SUM(C58:C63)</f>
-        <v>93</v>
-      </c>
-      <c r="D64" s="9">
-        <f>SUM(D58:D63)</f>
-        <v>90</v>
-      </c>
-      <c r="E64" s="9">
-        <f t="shared" si="1"/>
-        <v>96.774193548387103</v>
-      </c>
-      <c r="F64" s="9">
-        <f>SUM(F58:F63)</f>
-        <v>21</v>
-      </c>
-      <c r="G64" s="9">
-        <f>SUM(G58:G63)</f>
-        <v>19</v>
-      </c>
-      <c r="H64" s="9">
-        <f>MIN(F64,G64)/MAX(F64,G64)*100</f>
-        <v>90.476190476190482</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3</v>
+      </c>
+      <c r="C64" s="2">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2">
+        <v>23</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="2"/>
+        <v>95.833333333333343</v>
+      </c>
+      <c r="F64" s="2">
+        <v>5</v>
+      </c>
+      <c r="G64" s="2">
+        <v>4</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2230,27 +2319,27 @@
         <v>10</v>
       </c>
       <c r="B65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="1"/>
-        <v>95.833333333333343</v>
+        <f t="shared" si="2"/>
+        <v>95.652173913043484</v>
       </c>
       <c r="F65" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" s="2">
-        <f>MIN(F65,G65)/MAX(F65,G65)*100</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,27 +2347,27 @@
         <v>10</v>
       </c>
       <c r="B66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C66" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="1"/>
-        <v>91.666666666666657</v>
+        <f t="shared" ref="E66:E97" si="4">MIN($C66:$D66)/MAX($C66:$D66)*100</f>
+        <v>92</v>
       </c>
       <c r="F66" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" s="2">
-        <f>MIN(F66,G66)/MAX(F66,G66)*100</f>
-        <v>50</v>
+        <f t="shared" ref="H66:H97" si="5">MIN(F66,G66)/MAX(F66,G66)*100</f>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2286,27 +2375,27 @@
         <v>10</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="1"/>
-        <v>95.833333333333343</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F67" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G67" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H67" s="2">
-        <f>MIN(F67,G67)/MAX(F67,G67)*100</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,27 +2403,27 @@
         <v>10</v>
       </c>
       <c r="B68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="1"/>
-        <v>95.652173913043484</v>
+        <f t="shared" si="4"/>
+        <v>76</v>
       </c>
       <c r="F68" s="2">
         <v>5</v>
       </c>
       <c r="G68" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="2">
-        <f>MIN(F68,G68)/MAX(F68,G68)*100</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2342,27 +2431,27 @@
         <v>10</v>
       </c>
       <c r="B69" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C69" s="2">
         <v>25</v>
       </c>
       <c r="D69" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ref="E69:E100" si="2">MIN($C69:$D69)/MAX($C69:$D69)*100</f>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F69" s="2">
         <v>5</v>
       </c>
       <c r="G69" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2">
-        <f>MIN(F69,G69)/MAX(F69,G69)*100</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2370,143 +2459,143 @@
         <v>10</v>
       </c>
       <c r="B70" s="2">
+        <v>9</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2">
         <v>6</v>
       </c>
-      <c r="C70" s="2">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2">
-        <v>14</v>
-      </c>
       <c r="E70" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>66.666666666666657</v>
       </c>
       <c r="F70" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" s="2">
-        <f>MIN(F70,G70)/MAX(F70,G70)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="2">
-        <v>7</v>
-      </c>
-      <c r="C71" s="2">
-        <v>25</v>
-      </c>
-      <c r="D71" s="2">
-        <v>19</v>
-      </c>
-      <c r="E71" s="2">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="F71" s="2">
-        <v>5</v>
-      </c>
-      <c r="G71" s="2">
-        <v>3</v>
-      </c>
-      <c r="H71" s="2">
-        <f>MIN(F71,G71)/MAX(F71,G71)*100</f>
-        <v>60</v>
+      <c r="B71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="9">
+        <f>SUM(C62:C70)</f>
+        <v>193</v>
+      </c>
+      <c r="D71" s="9">
+        <f>SUM(D62:D70)</f>
+        <v>177</v>
+      </c>
+      <c r="E71" s="9">
+        <f t="shared" si="4"/>
+        <v>91.709844559585491</v>
+      </c>
+      <c r="F71" s="9">
+        <f>SUM(F62:F70)</f>
+        <v>38</v>
+      </c>
+      <c r="G71" s="9">
+        <f>SUM(G62:G70)</f>
+        <v>27</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" si="5"/>
+        <v>71.05263157894737</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>76.923076923076934</v>
       </c>
       <c r="F72" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H72" s="2">
-        <f>MIN(F72,G72)/MAX(F72,G72)*100</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2">
         <v>10</v>
       </c>
-      <c r="B73" s="2">
+      <c r="D73" s="2">
         <v>9</v>
       </c>
-      <c r="C73" s="2">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3</v>
+      </c>
+      <c r="C74" s="2">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2">
+        <v>21</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="4"/>
+        <v>91.304347826086953</v>
+      </c>
+      <c r="F74" s="2">
         <v>6</v>
       </c>
-      <c r="E73" s="2">
-        <f t="shared" si="2"/>
-        <v>66.666666666666657</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2">
-        <f>MIN(F73,G73)/MAX(F73,G73)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="9">
-        <f>SUM(C65:C73)</f>
-        <v>193</v>
-      </c>
-      <c r="D74" s="9">
-        <f>SUM(D65:D73)</f>
-        <v>177</v>
-      </c>
-      <c r="E74" s="9">
-        <f t="shared" si="2"/>
-        <v>91.709844559585491</v>
-      </c>
-      <c r="F74" s="9">
-        <f>SUM(F65:F73)</f>
-        <v>38</v>
-      </c>
-      <c r="G74" s="9">
-        <f>SUM(G65:G73)</f>
-        <v>27</v>
-      </c>
-      <c r="H74" s="9">
-        <f>MIN(F74,G74)/MAX(F74,G74)*100</f>
-        <v>71.05263157894737</v>
+      <c r="G74" s="2">
+        <v>5</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2514,27 +2603,27 @@
         <v>13</v>
       </c>
       <c r="B75" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D75" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" si="2"/>
-        <v>76.923076923076934</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F75" s="2">
         <v>4</v>
       </c>
       <c r="G75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H75" s="2">
-        <f>MIN(F75,G75)/MAX(F75,G75)*100</f>
-        <v>50</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2542,26 +2631,26 @@
         <v>13</v>
       </c>
       <c r="B76" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D76" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F76" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H76" s="2">
-        <f>MIN(F76,G76)/MAX(F76,G76)*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
@@ -2570,27 +2659,27 @@
         <v>13</v>
       </c>
       <c r="B77" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="2">
         <v>21</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="2"/>
-        <v>91.304347826086953</v>
+        <f t="shared" si="4"/>
+        <v>95.454545454545453</v>
       </c>
       <c r="F77" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" s="2">
-        <f>MIN(F77,G77)/MAX(F77,G77)*100</f>
-        <v>83.333333333333343</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2598,27 +2687,27 @@
         <v>13</v>
       </c>
       <c r="B78" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="F78" s="2">
         <v>4</v>
       </c>
       <c r="G78" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H78" s="2">
-        <f>MIN(F78,G78)/MAX(F78,G78)*100</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2626,26 +2715,26 @@
         <v>13</v>
       </c>
       <c r="B79" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F79" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H79" s="2">
-        <f>MIN(F79,G79)/MAX(F79,G79)*100</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
@@ -2654,27 +2743,27 @@
         <v>13</v>
       </c>
       <c r="B80" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D80" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F80" s="2">
         <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H80" s="2">
-        <f>MIN(F80,G80)/MAX(F80,G80)*100</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2682,27 +2771,27 @@
         <v>13</v>
       </c>
       <c r="B81" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D81" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f t="shared" si="4"/>
+        <v>91.304347826086953</v>
       </c>
       <c r="F81" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H81" s="2">
-        <f>MIN(F81,G81)/MAX(F81,G81)*100</f>
-        <v>75</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,16 +2799,16 @@
         <v>13</v>
       </c>
       <c r="B82" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C82" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F82" s="2">
@@ -2729,124 +2818,124 @@
         <v>1</v>
       </c>
       <c r="H82" s="2">
-        <f>MIN(F82,G82)/MAX(F82,G82)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="2">
-        <v>9</v>
-      </c>
-      <c r="C83" s="2">
-        <v>20</v>
-      </c>
-      <c r="D83" s="2">
-        <v>20</v>
-      </c>
-      <c r="E83" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F83" s="2">
-        <v>5</v>
-      </c>
-      <c r="G83" s="2">
-        <v>5</v>
-      </c>
-      <c r="H83" s="2">
-        <f>MIN(F83,G83)/MAX(F83,G83)*100</f>
-        <v>100</v>
+      <c r="B83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="9">
+        <f>SUM(C72:C82)</f>
+        <v>204</v>
+      </c>
+      <c r="D83" s="9">
+        <f>SUM(D72:D82)</f>
+        <v>191</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="4"/>
+        <v>93.627450980392155</v>
+      </c>
+      <c r="F83" s="9">
+        <f>SUM(F74:F82)</f>
+        <v>36</v>
+      </c>
+      <c r="G83" s="9">
+        <f>SUM(G74:G82)</f>
+        <v>32</v>
+      </c>
+      <c r="H83" s="9">
+        <f t="shared" si="5"/>
+        <v>88.888888888888886</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="2"/>
-        <v>91.304347826086953</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F84" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G84" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2">
-        <f>MIN(F84,G84)/MAX(F84,G84)*100</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D85" s="2">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>86.36363636363636</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G85" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H85" s="2">
-        <f>MIN(F85,G85)/MAX(F85,G85)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="9">
-        <f>SUM(C75:C85)</f>
-        <v>204</v>
-      </c>
-      <c r="D86" s="9">
-        <f>SUM(D75:D85)</f>
-        <v>191</v>
-      </c>
-      <c r="E86" s="9">
-        <f t="shared" si="2"/>
-        <v>93.627450980392155</v>
-      </c>
-      <c r="F86" s="9">
-        <f>SUM(F77:F85)</f>
-        <v>36</v>
-      </c>
-      <c r="G86" s="9">
-        <f>SUM(G77:G85)</f>
-        <v>32</v>
-      </c>
-      <c r="H86" s="9">
-        <f>MIN(F86,G86)/MAX(F86,G86)*100</f>
-        <v>88.888888888888886</v>
+        <f t="shared" si="5"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="2">
+        <v>10</v>
+      </c>
+      <c r="D86" s="2">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2854,27 +2943,27 @@
         <v>14</v>
       </c>
       <c r="B87" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C87" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>90.476190476190482</v>
       </c>
       <c r="F87" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G87" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H87" s="2">
-        <f>MIN(F87,G87)/MAX(F87,G87)*100</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,27 +2971,27 @@
         <v>14</v>
       </c>
       <c r="B88" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D88" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" si="2"/>
-        <v>86.36363636363636</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="F88" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G88" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H88" s="2">
-        <f>MIN(F88,G88)/MAX(F88,G88)*100</f>
-        <v>83.333333333333343</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2910,27 +2999,27 @@
         <v>14</v>
       </c>
       <c r="B89" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>90.476190476190482</v>
       </c>
       <c r="F89" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H89" s="2">
-        <f>MIN(F89,G89)/MAX(F89,G89)*100</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2938,17 +3027,17 @@
         <v>14</v>
       </c>
       <c r="B90" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" si="2"/>
-        <v>90.476190476190482</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="F90" s="2">
         <v>4</v>
@@ -2957,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="H90" s="2">
-        <f>MIN(F90,G90)/MAX(F90,G90)*100</f>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -2966,27 +3055,27 @@
         <v>14</v>
       </c>
       <c r="B91" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C91" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D91" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" si="2"/>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>83.333333333333343</v>
       </c>
       <c r="F91" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" s="2">
-        <f>MIN(F91,G91)/MAX(F91,G91)*100</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2994,17 +3083,17 @@
         <v>14</v>
       </c>
       <c r="B92" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" si="2"/>
-        <v>90.476190476190482</v>
+        <f t="shared" si="4"/>
+        <v>85</v>
       </c>
       <c r="F92" s="2">
         <v>5</v>
@@ -3013,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="H92" s="2">
-        <f>MIN(F92,G92)/MAX(F92,G92)*100</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
     </row>
@@ -3022,142 +3111,142 @@
         <v>14</v>
       </c>
       <c r="B93" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" si="2"/>
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>89.473684210526315</v>
       </c>
       <c r="F93" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G93" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H93" s="2">
-        <f>MIN(F93,G93)/MAX(F93,G93)*100</f>
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="9">
+        <f>SUM(C84:C93)</f>
+        <v>195</v>
+      </c>
+      <c r="D94" s="9">
+        <f>SUM(D84:D93)</f>
+        <v>177</v>
+      </c>
+      <c r="E94" s="9">
+        <f t="shared" si="4"/>
+        <v>90.769230769230774</v>
+      </c>
+      <c r="F94" s="9">
+        <f>SUM(F84:F93)</f>
+        <v>40</v>
+      </c>
+      <c r="G94" s="9">
+        <f>SUM(G84:G93)</f>
+        <v>30</v>
+      </c>
+      <c r="H94" s="9">
+        <f t="shared" si="5"/>
         <v>75</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="2">
-        <v>8</v>
-      </c>
-      <c r="C94" s="2">
-        <v>6</v>
-      </c>
-      <c r="D94" s="2">
-        <v>5</v>
-      </c>
-      <c r="E94" s="2">
-        <f t="shared" si="2"/>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="F94" s="2">
-        <v>1</v>
-      </c>
-      <c r="G94" s="2">
-        <v>1</v>
-      </c>
-      <c r="H94" s="2">
-        <f>MIN(F94,G94)/MAX(F94,G94)*100</f>
-        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="F95" s="2">
         <v>5</v>
       </c>
       <c r="G95" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H95" s="2">
-        <f>MIN(F95,G95)/MAX(F95,G95)*100</f>
-        <v>60</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B96" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C96" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="2"/>
-        <v>89.473684210526315</v>
+        <f t="shared" si="4"/>
+        <v>95.652173913043484</v>
       </c>
       <c r="F96" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G96" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" s="2">
-        <f>MIN(F96,G96)/MAX(F96,G96)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C97" s="9">
-        <f>SUM(C87:C96)</f>
-        <v>195</v>
-      </c>
-      <c r="D97" s="9">
-        <f>SUM(D87:D96)</f>
-        <v>177</v>
-      </c>
-      <c r="E97" s="9">
-        <f t="shared" si="2"/>
-        <v>90.769230769230774</v>
-      </c>
-      <c r="F97" s="9">
-        <f>SUM(F87:F96)</f>
-        <v>40</v>
-      </c>
-      <c r="G97" s="9">
-        <f>SUM(G87:G96)</f>
-        <v>30</v>
-      </c>
-      <c r="H97" s="9">
-        <f>MIN(F97,G97)/MAX(F97,G97)*100</f>
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="2">
+        <v>3</v>
+      </c>
+      <c r="C97" s="2">
+        <v>22</v>
+      </c>
+      <c r="D97" s="2">
+        <v>21</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="4"/>
+        <v>95.454545454545453</v>
+      </c>
+      <c r="F97" s="2">
+        <v>4</v>
+      </c>
+      <c r="G97" s="2">
+        <v>3</v>
+      </c>
+      <c r="H97" s="2">
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
@@ -3166,27 +3255,27 @@
         <v>15</v>
       </c>
       <c r="B98" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E98:E115" si="6">MIN($C98:$D98)/MAX($C98:$D98)*100</f>
         <v>100</v>
       </c>
       <c r="F98" s="2">
         <v>5</v>
       </c>
       <c r="G98" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H98" s="2">
-        <f>MIN(F98,G98)/MAX(F98,G98)*100</f>
-        <v>100</v>
+        <f t="shared" ref="H98:H115" si="7">MIN(F98,G98)/MAX(F98,G98)*100</f>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,27 +3283,27 @@
         <v>15</v>
       </c>
       <c r="B99" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C99" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D99" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" si="2"/>
-        <v>95.652173913043484</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="F99" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" s="2">
-        <f>MIN(F99,G99)/MAX(F99,G99)*100</f>
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,27 +3311,27 @@
         <v>15</v>
       </c>
       <c r="B100" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C100" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2">
         <v>21</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" si="2"/>
-        <v>95.454545454545453</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="F100" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G100" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H100" s="2">
-        <f>MIN(F100,G100)/MAX(F100,G100)*100</f>
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3250,27 +3339,27 @@
         <v>15</v>
       </c>
       <c r="B101" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D101" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" ref="E101:E118" si="3">MIN($C101:$D101)/MAX($C101:$D101)*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F101" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G101" s="2">
         <v>3</v>
       </c>
       <c r="H101" s="2">
-        <f>MIN(F101,G101)/MAX(F101,G101)*100</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,27 +3367,27 @@
         <v>15</v>
       </c>
       <c r="B102" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E102" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>95.238095238095227</v>
       </c>
       <c r="F102" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102" s="2">
         <v>2</v>
       </c>
       <c r="H102" s="2">
-        <f>MIN(F102,G102)/MAX(F102,G102)*100</f>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3306,63 +3395,67 @@
         <v>15</v>
       </c>
       <c r="B103" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C103" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E103" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F103" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G103" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H103" s="2">
-        <f>MIN(F103,G103)/MAX(F103,G103)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="2">
-        <v>7</v>
-      </c>
-      <c r="C104" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" s="2">
-        <v>11</v>
-      </c>
-      <c r="E104" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="F104" s="2">
-        <v>3</v>
-      </c>
-      <c r="G104" s="2">
-        <v>3</v>
-      </c>
-      <c r="H104" s="2">
-        <f>MIN(F104,G104)/MAX(F104,G104)*100</f>
-        <v>100</v>
+      <c r="B104" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="9">
+        <f>SUM(C95:C103)</f>
+        <v>176</v>
+      </c>
+      <c r="D104" s="9">
+        <f>SUM(D95:D103)</f>
+        <v>173</v>
+      </c>
+      <c r="E104" s="9">
+        <f t="shared" si="6"/>
+        <v>98.295454545454547</v>
+      </c>
+      <c r="F104" s="9">
+        <f>SUM(F95:F103)</f>
+        <v>36</v>
+      </c>
+      <c r="G104" s="9">
+        <f>SUM(G95:G103)</f>
+        <v>30</v>
+      </c>
+      <c r="H104" s="9">
+        <f t="shared" si="7"/>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C105" s="2">
         <v>21</v>
@@ -3371,78 +3464,74 @@
         <v>20</v>
       </c>
       <c r="E105" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>95.238095238095227</v>
       </c>
       <c r="F105" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G105" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H105" s="2">
-        <f>MIN(F105,G105)/MAX(F105,G105)*100</f>
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>83.333333333333343</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D106" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E106" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>95.833333333333343</v>
       </c>
       <c r="F106" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G106" s="2">
         <v>3</v>
       </c>
       <c r="H106" s="2">
-        <f>MIN(F106,G106)/MAX(F106,G106)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3</v>
+      </c>
+      <c r="C107" s="2">
         <v>12</v>
       </c>
-      <c r="C107" s="9">
-        <f>SUM(C98:C106)</f>
-        <v>176</v>
-      </c>
-      <c r="D107" s="9">
-        <f>SUM(D98:D106)</f>
-        <v>173</v>
-      </c>
-      <c r="E107" s="9">
-        <f t="shared" si="3"/>
-        <v>98.295454545454547</v>
-      </c>
-      <c r="F107" s="9">
-        <f>SUM(F98:F106)</f>
-        <v>36</v>
-      </c>
-      <c r="G107" s="9">
-        <f>SUM(G98:G106)</f>
-        <v>30</v>
-      </c>
-      <c r="H107" s="9">
-        <f>MIN(F107,G107)/MAX(F107,G107)*100</f>
+      <c r="D107" s="2">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2">
+        <f t="shared" si="6"/>
         <v>83.333333333333343</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>1</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3450,27 +3539,27 @@
         <v>16</v>
       </c>
       <c r="B108" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2">
         <v>21</v>
       </c>
       <c r="D108" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E108" s="2">
-        <f t="shared" si="3"/>
-        <v>95.238095238095227</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="F108" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G108" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H108" s="2">
-        <f>MIN(F108,G108)/MAX(F108,G108)*100</f>
-        <v>83.333333333333343</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3478,27 +3567,27 @@
         <v>16</v>
       </c>
       <c r="B109" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C109" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E109" s="2">
-        <f t="shared" si="3"/>
-        <v>95.833333333333343</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="F109" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G109" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" s="2">
-        <f>MIN(F109,G109)/MAX(F109,G109)*100</f>
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3506,27 +3595,27 @@
         <v>16</v>
       </c>
       <c r="B110" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C110" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D110" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E110" s="2">
-        <f t="shared" si="3"/>
-        <v>83.333333333333343</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="F110" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G110" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H110" s="2">
-        <f>MIN(F110,G110)/MAX(F110,G110)*100</f>
-        <v>50</v>
+        <f t="shared" si="7"/>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3534,7 +3623,7 @@
         <v>16</v>
       </c>
       <c r="B111" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C111" s="2">
         <v>21</v>
@@ -3543,17 +3632,17 @@
         <v>21</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F111" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G111" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H111" s="2">
-        <f>MIN(F111,G111)/MAX(F111,G111)*100</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -3562,27 +3651,27 @@
         <v>16</v>
       </c>
       <c r="B112" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E112" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>91.666666666666657</v>
       </c>
       <c r="F112" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
       </c>
       <c r="H112" s="2">
-        <f>MIN(F112,G112)/MAX(F112,G112)*100</f>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3590,27 +3679,27 @@
         <v>16</v>
       </c>
       <c r="B113" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C113" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D113" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="F113" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H113" s="2">
-        <f>MIN(F113,G113)/MAX(F113,G113)*100</f>
-        <v>66.666666666666657</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3618,168 +3707,90 @@
         <v>16</v>
       </c>
       <c r="B114" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C114" s="2">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2">
+        <v>16</v>
+      </c>
+      <c r="E114" s="2">
+        <f t="shared" si="6"/>
+        <v>94.117647058823522</v>
+      </c>
+      <c r="F114" s="2">
+        <v>3</v>
+      </c>
+      <c r="G114" s="2">
+        <v>2</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" si="7"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="9">
+        <f>SUM(C105:C114)</f>
+        <v>181</v>
+      </c>
+      <c r="D115" s="9">
+        <f>SUM(D105:D114)</f>
+        <v>174</v>
+      </c>
+      <c r="E115" s="9">
+        <f t="shared" si="6"/>
+        <v>96.132596685082873</v>
+      </c>
+      <c r="F115" s="9">
+        <f>SUM(F105:F113)</f>
+        <v>33</v>
+      </c>
+      <c r="G115" s="9">
+        <f>SUM(G105:G114)</f>
+        <v>32</v>
+      </c>
+      <c r="H115" s="9">
+        <f t="shared" si="7"/>
+        <v>96.969696969696969</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D114" s="2">
-        <v>21</v>
-      </c>
-      <c r="E114" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="F114" s="2">
-        <v>6</v>
-      </c>
-      <c r="G114" s="2">
-        <v>6</v>
-      </c>
-      <c r="H114" s="2">
-        <f>MIN(F114,G114)/MAX(F114,G114)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="2">
-        <v>8</v>
-      </c>
-      <c r="C115" s="2">
-        <v>24</v>
-      </c>
-      <c r="D115" s="2">
-        <v>22</v>
-      </c>
-      <c r="E115" s="2">
-        <f t="shared" si="3"/>
-        <v>91.666666666666657</v>
-      </c>
-      <c r="F115" s="2">
-        <v>4</v>
-      </c>
-      <c r="G115" s="2">
-        <v>2</v>
-      </c>
-      <c r="H115" s="2">
-        <f>MIN(F115,G115)/MAX(F115,G115)*100</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" s="2">
-        <v>9</v>
-      </c>
       <c r="C116" s="2">
-        <v>4</v>
-      </c>
-      <c r="D116" s="2">
-        <v>4</v>
+        <f>SUM(C14,C20, C32,C42,C54,C61,C71,C83,C94,C104,C115)</f>
+        <v>1745</v>
+      </c>
+      <c r="D116" s="5">
+        <f>SUM(D14,D20, D32,D42,D54,D61,D71,D83,D94,D104,D115)</f>
+        <v>1654</v>
       </c>
       <c r="E116" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" ref="E116" si="8">MIN($C116:$D116)/MAX($C116:$D116)*100</f>
+        <v>94.785100286532952</v>
       </c>
       <c r="F116" s="2">
-        <v>1</v>
+        <f>SUM(F14,F20,F32,F42,F54,F61,F71,F83,F94,F104,F115)</f>
+        <v>353</v>
       </c>
       <c r="G116" s="2">
-        <v>1</v>
+        <f>SUM(G14,G20,G32,G42,G54,G61,G71,G83,G94,G104,G115)</f>
+        <v>293</v>
       </c>
       <c r="H116" s="2">
         <f>MIN(F116,G116)/MAX(F116,G116)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="2">
-        <v>10</v>
-      </c>
-      <c r="C117" s="2">
-        <v>17</v>
-      </c>
-      <c r="D117" s="2">
-        <v>16</v>
-      </c>
-      <c r="E117" s="2">
-        <f t="shared" si="3"/>
-        <v>94.117647058823522</v>
-      </c>
-      <c r="F117" s="2">
-        <v>3</v>
-      </c>
-      <c r="G117" s="2">
-        <v>2</v>
-      </c>
-      <c r="H117" s="2">
-        <f>MIN(F117,G117)/MAX(F117,G117)*100</f>
-        <v>66.666666666666657</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="9">
-        <f>SUM(C108:C117)</f>
-        <v>181</v>
-      </c>
-      <c r="D118" s="9">
-        <f>SUM(D108:D117)</f>
-        <v>174</v>
-      </c>
-      <c r="E118" s="9">
-        <f t="shared" si="3"/>
-        <v>96.132596685082873</v>
-      </c>
-      <c r="F118" s="9">
-        <f>SUM(F108:F116)</f>
-        <v>33</v>
-      </c>
-      <c r="G118" s="9">
-        <f>SUM(G108:G117)</f>
-        <v>32</v>
-      </c>
-      <c r="H118" s="9">
-        <f>MIN(F118,G118)/MAX(F118,G118)*100</f>
-        <v>96.969696969696969</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="2">
-        <f>SUM(C17,C23, C35,C45,C57,C64,C74,C86,C97,C107,C118)</f>
-        <v>1745</v>
-      </c>
-      <c r="D124" s="5">
-        <f>SUM(D17,D23, D35,D45,D57,D64,D74,D86,D97,D107,D118)</f>
-        <v>1654</v>
-      </c>
-      <c r="E124" s="2">
-        <f t="shared" ref="E124" si="4">MIN($C124:$D124)/MAX($C124:$D124)*100</f>
-        <v>94.785100286532952</v>
-      </c>
-      <c r="F124" s="2">
-        <f>SUM(F17,F23,F35,F45,F57,F64,F74,F86,F97,F107,F118)</f>
-        <v>353</v>
-      </c>
-      <c r="G124" s="2">
-        <f>SUM(G17,G23,G35,G45,G57,G64,G74,G86,G97,G107,G118)</f>
-        <v>293</v>
-      </c>
-      <c r="H124" s="2">
-        <f>MIN(F124,G124)/MAX(F124,G124)*100</f>
         <v>83.002832861189802</v>
       </c>
     </row>
@@ -3788,7 +3799,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E17 E23" formula="1"/>
+    <ignoredError sqref="E14 E20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>